--- a/TWI_2023_1.xlsx
+++ b/TWI_2023_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AI_PRO_DESK\Documents\ad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Lth\HcP\Share\Phong MFE3\2024\20240423 AS23 std hard to remember\Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F808E06A-354B-4DCA-95E8-31DAC2C91218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E26E90-E87D-4E64-87D0-B3537B748BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview list - HcP-001069- (2)" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Overview list - HcP-001069-002 '!$A$1:$Q$393</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Phong Export'!$A$1:$Q$399</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Phong Export'!$Q$2:$Q$399</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Phong Export'!$Q$2:$Q$399</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -5200,38 +5201,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5295,7 +5296,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6007,8 +6008,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24509048" y="3106236"/>
-              <a:ext cx="4548773" cy="2828924"/>
+              <a:off x="24162973" y="3068136"/>
+              <a:ext cx="4548773" cy="2774949"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6040,16 +6041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>124402</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7135091</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>66097</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>89766</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6064,8 +6065,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28866234" y="7623175"/>
-          <a:ext cx="6355772" cy="2770909"/>
+          <a:off x="10864273" y="3198091"/>
+          <a:ext cx="6361545" cy="2874818"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6173,9 +6174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6213,7 +6214,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6319,7 +6320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6461,7 +6462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6472,7 +6473,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H393"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
@@ -13750,7 +13751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q393"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -24531,21 +24532,20 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="111.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.08984375" customWidth="1"/>
     <col min="12" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.90625" customWidth="1"/>
-    <col min="16" max="16" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="12" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
@@ -25007,11 +25007,11 @@
         <v>1067</v>
       </c>
       <c r="O9" s="22">
-        <f>DATE(RIGHT(L9,4),MID(L9,4,2),LEFT(L9,2))</f>
+        <f t="shared" ref="O9:P12" si="1">DATE(RIGHT(L9,4),MID(L9,4,2),LEFT(L9,2))</f>
         <v>44943</v>
       </c>
       <c r="P9" s="22">
-        <f t="shared" ref="O9:P12" si="1">DATE(RIGHT(M9,4),MID(M9,4,2),LEFT(M9,2))</f>
+        <f t="shared" si="1"/>
         <v>45120</v>
       </c>
       <c r="Q9" s="17">
@@ -25067,7 +25067,7 @@
         <v>1067</v>
       </c>
       <c r="O10" s="22">
-        <f>DATE(RIGHT(L10,4),MID(L10,4,2),LEFT(L10,2))</f>
+        <f t="shared" si="1"/>
         <v>44963</v>
       </c>
       <c r="P10" s="22">
